--- a/database/industries/lastic/pekerman/product/yearly.xlsx
+++ b/database/industries/lastic/pekerman/product/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\lastic\pekerman\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\pekerman\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67994285-9D0D-4000-AF9B-B4FBE77D98BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="5550"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>پکرمان-گروه‌ صنعتی‌ بارز</t>
@@ -117,7 +118,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -287,7 +288,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -299,7 +300,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -346,6 +347,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -381,6 +399,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -532,7 +567,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/database/industries/lastic/pekerman/product/yearly.xlsx
+++ b/database/industries/lastic/pekerman/product/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\pekerman\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\pekerman\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67994285-9D0D-4000-AF9B-B4FBE77D98BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E4FAEA-F658-44C5-84B8-DE5762EB9722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -572,12 +572,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -587,7 +587,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -599,7 +599,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -611,7 +611,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -621,7 +621,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -633,7 +633,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -645,7 +645,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -655,7 +655,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -677,7 +677,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -687,7 +687,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -711,7 +711,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
@@ -735,7 +735,7 @@
         <v>1553217</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>13</v>
       </c>
@@ -759,7 +759,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -783,7 +783,7 @@
         <v>3084339</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>15</v>
       </c>
@@ -807,7 +807,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>16</v>
       </c>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>17</v>
       </c>
@@ -853,7 +853,7 @@
         <v>30370766</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>18</v>
       </c>
@@ -877,7 +877,7 @@
         <v>54691371</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>19</v>
       </c>
@@ -899,7 +899,7 @@
         <v>89699693</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -909,7 +909,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -919,7 +919,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -929,7 +929,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
         <v>20</v>
       </c>
@@ -951,7 +951,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -961,7 +961,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>10</v>
       </c>
@@ -985,7 +985,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>13</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>1566478</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>21</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>15</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>2921312</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>16</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>17</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>29521927</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>18</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>55413265</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>19</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>89422982</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1159,7 +1159,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1169,7 +1169,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1179,7 +1179,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
         <v>23</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1211,7 +1211,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>10</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>13</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>466518</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>21</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>15</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>1746867</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>16</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>17</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>16768226</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>18</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>30783805</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="14" t="s">
         <v>19</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>49765416</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1411,7 +1411,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1421,7 +1421,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1431,7 +1431,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
         <v>25</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1463,7 +1463,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>10</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>13</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>297813</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>21</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>15</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>597973</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>16</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>17</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>567992</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>18</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>555531</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1641,7 +1641,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1651,7 +1651,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1661,7 +1661,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B60" s="7" t="s">
         <v>29</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1693,7 +1693,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>13</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>-418539</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>21</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>15</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>-1503519</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>16</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>17</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>-16025640</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>18</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>-28885535</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
         <v>19</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>-46833233</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1869,7 +1869,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1879,7 +1879,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -1889,7 +1889,7 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B72" s="7" t="s">
         <v>30</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1921,7 +1921,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>13</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>47979</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>21</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="s">
         <v>15</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>243348</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>16</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>17</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>742586</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>18</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>1898270</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="12" t="s">
         <v>19</v>
       </c>
